--- a/frontend.xlsx
+++ b/frontend.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="数组" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>可遍历属性</t>
   </si>
@@ -43,7 +44,55 @@
     <t>Reflect.ownKeys</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                                      </t>
+    <t>hasOwnProperty</t>
+  </si>
+  <si>
+    <t>会改变自身的方法</t>
+  </si>
+  <si>
+    <t>不会改变自身的方法</t>
+  </si>
+  <si>
+    <t>copyWithin</t>
+  </si>
+  <si>
+    <t>concat</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>includes</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>reverse</t>
+  </si>
+  <si>
+    <t>lastIndexOf</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>splice</t>
+  </si>
+  <si>
+    <t>unshift</t>
   </si>
 </sst>
 </file>
@@ -56,13 +105,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.2"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -84,8 +146,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,13 +161,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,13 +182,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -141,47 +195,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +242,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,17 +259,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,25 +305,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,157 +467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,17 +528,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,7 +580,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,39 +602,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -542,17 +611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,151 +645,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,7 +1121,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1056,76 +1134,85 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.35" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="23.55" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="22.8" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="31.2" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="22.8" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="22.8" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
-      <c r="D6" t="s">
+    <row r="6" ht="22.8" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1133,4 +1220,96 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="28.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="32.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="16.8" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="16.8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="16.8" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>